--- a/New folder/03022025-3rd-NSP3 Analogues-DLS team and Wenjie.xlsx
+++ b/New folder/03022025-3rd-NSP3 Analogues-DLS team and Wenjie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadia\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadia\OneDrive\Desktop\NSP3-MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986BBDA5-BABF-4974-9D2E-6DCA518C682E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BC4269-B172-4629-9D7D-EC77B483B413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BB83DB0-F0A9-495F-9B5B-34C1C8E516E9}"/>
   </bookViews>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
